--- a/Projects/PERNODUS/Data/Pernod_display_kpi.xlsx
+++ b/Projects/PERNODUS/Data/Pernod_display_kpi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="29">
   <si>
     <t xml:space="preserve">KPI LEVEL 2</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Value2</t>
   </si>
   <si>
-    <t xml:space="preserve">scene_type</t>
+    <t xml:space="preserve">template_type</t>
   </si>
   <si>
     <t xml:space="preserve">Location</t>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">COUNT_OF_DISPLAY</t>
   </si>
   <si>
-    <t xml:space="preserve">template</t>
+    <t xml:space="preserve">template_name</t>
   </si>
   <si>
     <t xml:space="preserve">Floor Display</t>
@@ -85,16 +85,19 @@
     <t xml:space="preserve">manufacturer_name</t>
   </si>
   <si>
+    <t xml:space="preserve">PERNOD RICARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPIRITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHARE_OF_DISPLAY</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pernod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHARE_OF_DISPLAY</t>
   </si>
   <si>
     <t xml:space="preserve">SOLO_SHARED</t>
@@ -113,11 +116,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -135,23 +139,47 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCFFCC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -188,16 +216,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -210,66 +250,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -278,24 +258,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H43" activeCellId="0" sqref="H43"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0867346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.9642857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.1836734693878"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.780612244898"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="50.8469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.2908163265306"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.4591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.5051020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="50.219387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -327,17 +308,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -348,7 +329,7 @@
       <c r="G3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="0" t="n">
@@ -362,7 +343,7 @@
       <c r="G4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="0" t="n">
@@ -376,7 +357,7 @@
       <c r="G5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="0" t="n">
@@ -390,7 +371,7 @@
       <c r="G6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="0" t="n">
@@ -404,7 +385,7 @@
       <c r="G7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="0" t="n">
@@ -418,10 +399,53 @@
       <c r="G8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -429,12 +453,11 @@
       <c r="A12" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="1"/>
       <c r="G12" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>11</v>
+      <c r="H12" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>2</v>
@@ -447,8 +470,8 @@
       <c r="G13" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>12</v>
+      <c r="H13" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>2</v>
@@ -461,8 +484,8 @@
       <c r="G14" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>13</v>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>2</v>
@@ -475,76 +498,161 @@
       <c r="G15" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>14</v>
+      <c r="H15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="0" t="n">
+    <row r="16" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>18</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>17</v>
+      <c r="H18" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="I18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>11</v>
+      <c r="H22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>2</v>
@@ -552,77 +660,61 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>12</v>
+      <c r="H23" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="0" t="n">
+    <row r="24" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>14</v>
+      <c r="H25" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>2</v>
@@ -630,25 +722,19 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>15</v>
+      <c r="H26" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>2</v>
@@ -656,25 +742,19 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>16</v>
+      <c r="H27" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>2</v>
@@ -682,322 +762,184 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>2</v>
+      <c r="B31" s="1"/>
+      <c r="C31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+        <v>28</v>
+      </c>
       <c r="G33" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>2</v>
+      <c r="H33" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+        <v>28</v>
+      </c>
       <c r="G34" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>2</v>
+      <c r="H34" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+        <v>28</v>
+      </c>
       <c r="G35" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>2</v>
+      <c r="H35" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+        <v>28</v>
+      </c>
       <c r="G36" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>2</v>
+      <c r="H36" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+        <v>28</v>
+      </c>
       <c r="G37" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="H37" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/PERNODUS/Data/Pernod_display_kpi.xlsx
+++ b/Projects/PERNODUS/Data/Pernod_display_kpi.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">template_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Floor Display</t>
+    <t xml:space="preserve">Floor Display,End Cap Display,Rack Display,One Case Bin Display,Standalone Barrel Display,Lock Box Display,Other Display</t>
   </si>
   <si>
     <t xml:space="preserve">BRANDS_ON_DISPLAY</t>
@@ -223,7 +223,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -269,7 +269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="1" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -283,7 +283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="1" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -375,7 +375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>

--- a/Projects/PERNODUS/Data/Pernod_display_kpi.xlsx
+++ b/Projects/PERNODUS/Data/Pernod_display_kpi.xlsx
@@ -82,7 +82,7 @@
     <t xml:space="preserve">brand_name</t>
   </si>
   <si>
-    <t xml:space="preserve">ABSOLUT,JAMESON,MALIBU,GLENLIVET,KAHULA,SEGRAMS,CHIVAS,AVION</t>
+    <t xml:space="preserve">ABSOLUT,JAMESON,MALIBU,GLENLIVET,KAHLUA,SEAGRAM'S,CHIVAS REGAL,AVION</t>
   </si>
   <si>
     <t xml:space="preserve">SHARE_OF_DISPLAY_MANUFACTURER</t>
@@ -223,7 +223,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -316,7 +316,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="true" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -356,7 +356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -375,7 +375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>

--- a/Projects/PERNODUS/Data/Pernod_display_kpi.xlsx
+++ b/Projects/PERNODUS/Data/Pernod_display_kpi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t xml:space="preserve">KPI LEVEL 2</t>
   </si>
@@ -67,13 +67,7 @@
     <t xml:space="preserve">manufacturer_name</t>
   </si>
   <si>
-    <t xml:space="preserve">PERNOD RICARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPIRITS</t>
+    <t xml:space="preserve">PERNOD RICARD,DIAGEO,BEAM SUNTORY,PROXIMO,BACARDI,E&amp;J GALLO,BROWN-FORMAN,CONSTELLATION,SAZERAC,HEAVEN HILL</t>
   </si>
   <si>
     <t xml:space="preserve">SOS_ON_DISPLAY_BRANDS</t>
@@ -82,7 +76,7 @@
     <t xml:space="preserve">brand_name</t>
   </si>
   <si>
-    <t xml:space="preserve">ABSOLUT,JAMESON,MALIBU,GLENLIVET,KAHLUA,SEAGRAM'S,CHIVAS REGAL,AVION</t>
+    <t xml:space="preserve">JAMESON,ABSOLUT,SEAGRAM'S,MALIBU,KAHLUA,GLENLIVET,CHIVAS REGAL,BEEFEATER,ALTOS,AVION,MARTELL,SMIRNOFF,TITO'S,NEW AMSTERDAM,CAPTAIN MORGAN,BACARDI,SAILOR JERRY,JACK DANIEL'S,JIM BEAM,MAKER'S MARK,JOSE CUERVO,SAUZA,1800,BAILEYS,JAGERMEISTER,CROWN ROYAL,FIREBALL,CANADIAN CLUB,BOMBAY,TANQUERAY,HENNESSY,COURVOISIER,REMY MARTIN,JOHNNIE WALKER</t>
   </si>
   <si>
     <t xml:space="preserve">SHARE_OF_DISPLAY_MANUFACTURER</t>
@@ -223,7 +217,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -308,23 +302,19 @@
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
@@ -335,7 +325,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -344,28 +334,24 @@
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="2"/>
       <c r="I6" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -375,16 +361,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
